--- a/意向标的说明.xlsx
+++ b/意向标的说明.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghui/GitHub/QBII/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="395"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,11 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司名称：罗氏
-公司介绍：罗氏公司是在国际健康事业领域居世界领先地位，以科研开发为基础的跨国公司，总部位于瑞士巴塞尔。2010年罗氏公司在《财富》杂志世界五百强排名第153位，位列全球制药公司第2位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t> 15,55.34（财务）
   4142.44（业务）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,13 @@
   <si>
     <t>-415.33（财务）
 2529.26（业务）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称：罗氏
+公司介绍：罗氏公司是在国际健康事业领域居世界领先地位，以科研开发为基础的跨国公司，总部位于瑞士巴塞尔。2010年罗氏公司在《财富》杂志世界五百强排名第153位，位列全球制药公司第2位。
+公司名称：三诺生物
+公司介绍：长沙三诺生物传感股份有限公司是一家致力于利用生物传感技术研发和生产即时检测（POCT）产品的高新技术公司。旗下产品覆盖血糖、血脂、糖化血红蛋白、尿酸等多项糖尿病指标检测，是目前全球第六大血糖仪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,9 +1075,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1083,58 +1087,12 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="99">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1184,6 +1142,55 @@
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1489,10 +1496,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="B2:L10"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="19" bestFit="1" customWidth="1"/>
@@ -1511,8 +1518,8 @@
     <col min="15" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="45" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:14" ht="51" customHeight="1">
+    <row r="1" spans="2:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">
         <v>65</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="126">
+    <row r="3" spans="2:14" ht="126" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1591,17 +1598,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="202" customHeight="1">
+    <row r="4" spans="2:14" ht="202" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="25"/>
@@ -1623,7 +1630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="205" customHeight="1">
+    <row r="5" spans="2:14" ht="205" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="211" customHeight="1">
+    <row r="6" spans="2:14" ht="211" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1700,7 @@
       </c>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="2:14" ht="212" customHeight="1">
+    <row r="7" spans="2:14" ht="212" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="108" customHeight="1">
+    <row r="8" spans="2:14" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1767,7 +1774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="45" customHeight="1" thickBot="1">
+    <row r="9" spans="2:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1789,29 +1796,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="76" customHeight="1" thickBot="1">
+    <row r="10" spans="2:14" ht="213" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="C10" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="38" t="s">
         <v>94</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>95</v>
       </c>
       <c r="M10" s="28" t="s">
         <v>89</v>
@@ -1824,11 +1831,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1840,7 +1842,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="19" bestFit="1" customWidth="1"/>
@@ -1858,8 +1860,8 @@
     <col min="15" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="45" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:14" ht="51" customHeight="1">
+    <row r="1" spans="2:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">
         <v>65</v>
       </c>
@@ -1900,7 +1902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="212" customHeight="1">
+    <row r="3" spans="2:14" ht="212" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="168">
+    <row r="4" spans="2:14" ht="168" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1976,18 +1978,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="51" customHeight="1">
+    <row r="5" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="2" t="s">
@@ -2006,7 +2008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="51" customHeight="1">
+    <row r="6" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="211" customHeight="1">
+    <row r="7" spans="2:14" ht="211" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2078,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="108" customHeight="1">
+    <row r="8" spans="2:14" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="45" customHeight="1" thickBot="1">
+    <row r="9" spans="2:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
         <v>9</v>
       </c>
@@ -2140,11 +2142,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2154,14 +2151,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>